--- a/templates/Final/Survey_Structure_Template_Annotated_Final.xlsx
+++ b/templates/Final/Survey_Structure_Template_Annotated_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9FFC7-F098-0D49-A765-CA09B886375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890F9CD-D30B-9246-9A8F-C4034CB1C389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23380" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Survey Structure Template - Instructions</t>
   </si>
   <si>
-    <t>Created: 2025-12-02</t>
-  </si>
-  <si>
     <t>OVERVIEW</t>
   </si>
   <si>
@@ -1145,6 +1142,9 @@
       </rPr>
       <t xml:space="preserve">(matches folder name) - so make this match the project root directory </t>
     </r>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
 </sst>
 </file>
@@ -1303,16 +1303,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1351,10 +1345,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1670,165 +1669,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1854,215 +1853,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497186D7-97EC-4E4F-B22C-9EE5EDDDB3C3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="4">
+        <v>20251018</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="8">
-        <v>20251018</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="9" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="9" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="9" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2094,396 +2093,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="187" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="D6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="21" t="s">
+      <c r="B20" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="17">
-        <v>3</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2507,340 +2506,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="323" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="C8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="323" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="B19" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="22">
+        <v>18</v>
+      </c>
+      <c r="D19" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="26">
-        <v>18</v>
-      </c>
-      <c r="D19" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="C20" s="22">
+        <v>25</v>
+      </c>
+      <c r="D20" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="26">
-        <v>25</v>
-      </c>
-      <c r="D20" s="26">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="22">
+        <v>35</v>
+      </c>
+      <c r="D21" s="22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="26">
-        <v>35</v>
-      </c>
-      <c r="D21" s="26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="22">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="26">
-        <v>45</v>
-      </c>
-      <c r="D22" s="26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2867,196 +2866,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="A1" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="25" t="s">
+      <c r="B8" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="C8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
